--- a/output_tariffs.xlsx
+++ b/output_tariffs.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>未找到关税信息</t>
+          <t>20%</t>
         </is>
       </c>
     </row>
